--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-form.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitLab\hzero-resource\init-data\op\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\AppData\Local\Temp\Rar$DIa0.948\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0485F5DD-2FD1-4130-9203-BEC55D861987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,20 +21,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -2004,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-14</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2055,24 +2046,15 @@
     <t>DATASOURCE</t>
   </si>
   <si>
+    <t>Redis数据源,勿删</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>hpfm_form_header-10</t>
-  </si>
-  <si>
-    <t>HMSG.CALL.JINGDONG</t>
-  </si>
-  <si>
-    <t>京东语音消息</t>
-  </si>
-  <si>
-    <t>HMSG_CALL</t>
-  </si>
-  <si>
     <t>表单配置行</t>
   </si>
   <si>
@@ -2121,18 +2103,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>redisHost</t>
-  </si>
-  <si>
-    <t>Redis Host地址</t>
-  </si>
-  <si>
-    <t>测试数据</t>
-  </si>
-  <si>
-    <t>testdata</t>
-  </si>
-  <si>
     <t>TEXT</t>
   </si>
   <si>
@@ -2146,42 +2116,12 @@
   </si>
   <si>
     <t>/.*"errNo":"(.+?)".*/</t>
-  </si>
-  <si>
-    <t>accountCode</t>
-  </si>
-  <si>
-    <t>账户编码</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>账户key</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>playTimes</t>
-  </si>
-  <si>
-    <t>重播次数</t>
-  </si>
-  <si>
-    <t>播放次数</t>
-  </si>
-  <si>
-    <t>40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="34">
     <font>
       <sz val="12"/>
@@ -2621,7 +2561,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2961,27 +2901,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.1015625" customWidth="1"/>
-    <col min="4" max="4" width="35.3125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5234375" customWidth="1"/>
-    <col min="6" max="6" width="23.41796875" customWidth="1"/>
-    <col min="7" max="7" width="21.5234375" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5234375" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1015625" customWidth="1"/>
-    <col min="12" max="12" width="18.5234375" customWidth="1"/>
-    <col min="13" max="13" width="13.1015625" customWidth="1"/>
-    <col min="14" max="1025" width="10.3125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
@@ -2995,7 +2935,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="16.899999999999999">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -3009,7 +2949,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="1:8" ht="16.899999999999999">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
@@ -3030,7 +2970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.899999999999999">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3050,7 +2990,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="48.4">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3064,7 +3004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="48.4">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3075,7 +3015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="64.5">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3107,7 +3047,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="32.25">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3130,7 +3070,7 @@
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
     </row>
-    <row r="20" spans="3:5" ht="16.899999999999999">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3138,7 +3078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="16.899999999999999">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3146,7 +3086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="16.899999999999999">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3154,7 +3094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="16.899999999999999">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3180,7 +3120,7 @@
       </c>
       <c r="E26" s="43"/>
     </row>
-    <row r="27" spans="3:5" ht="48.4">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3202,17 +3142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
-  <cols>
-    <col min="6" max="6" width="23.41796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="27" t="s">
@@ -3297,301 +3234,125 @@
         <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
         <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="E10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" t="s">
-        <v>68</v>
+      <c r="F10" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="P11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>87</v>
-      </c>
-      <c r="R11" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="F11" t="str">
         <f>表单配置!$E$8</f>
         <v>hpfm_form_header-8</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" t="s">
         <v>89</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" t="s">
         <v>90</v>
       </c>
-      <c r="I12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="R11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="str">
-        <f>表单配置!$E$8</f>
-        <v>hpfm_form_header-8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13" t="s">
-        <v>67</v>
-      </c>
-      <c r="S13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="str">
-        <f>表单配置!$E$9</f>
-        <v>hpfm_form_header-10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" t="s">
-        <v>67</v>
-      </c>
-      <c r="R14" t="s">
-        <v>67</v>
-      </c>
-      <c r="S14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="str">
-        <f>表单配置!$E$9</f>
-        <v>hpfm_form_header-10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" t="s">
-        <v>67</v>
-      </c>
-      <c r="R15" t="s">
-        <v>67</v>
-      </c>
-      <c r="S15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="str">
-        <f>表单配置!$E$9</f>
-        <v>hpfm_form_header-10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" t="s">
-        <v>68</v>
-      </c>
-      <c r="R16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S16" t="s">
-        <v>68</v>
+      <c r="S11" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-form.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,10 +2031,10 @@
     <t>enabled_flag</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>hpfm_form_header-8</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-form.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2037,6 +2037,12 @@
     <t>#tenant_id:en_US</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>hpfm_form_header-8</t>
   </si>
   <si>
@@ -2046,6 +2052,9 @@
     <t>Redis数据源</t>
   </si>
   <si>
+    <t>Redis data source</t>
+  </si>
+  <si>
     <t>DATASOURCE</t>
   </si>
   <si>
@@ -2058,6 +2067,12 @@
     <t>0</t>
   </si>
   <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>表单配置行</t>
   </si>
   <si>
@@ -2113,6 +2128,9 @@
   </si>
   <si>
     <t>Redis端口</t>
+  </si>
+  <si>
+    <t>Redis port</t>
   </si>
   <si>
     <t>2</t>
@@ -3146,7 +3164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3220,37 +3238,49 @@
       <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -3261,49 +3291,49 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s" s="44">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s" s="45">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="46">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="47">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
         <v>61</v>
@@ -3315,54 +3345,66 @@
         <v>63</v>
       </c>
       <c r="U10" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F11">
         <f>表单配置!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="V11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-form.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-form.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2043,36 +2043,6 @@
     <t>last_updated_by</t>
   </si>
   <si>
-    <t>hpfm_form_header-8</t>
-  </si>
-  <si>
-    <t>Redis</t>
-  </si>
-  <si>
-    <t>Redis数据源</t>
-  </si>
-  <si>
-    <t>Redis data source</t>
-  </si>
-  <si>
-    <t>DATASOURCE</t>
-  </si>
-  <si>
-    <t>Redis数据源,勿删</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>表单配置行</t>
   </si>
   <si>
@@ -2119,27 +2089,6 @@
   </si>
   <si>
     <t>value_set</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>redisPort</t>
-  </si>
-  <si>
-    <t>Redis端口</t>
-  </si>
-  <si>
-    <t>Redis port</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>/.*"errNo":"(.+?)".*/</t>
   </si>
 </sst>
 </file>
@@ -3164,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3245,166 +3194,75 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" t="s">
+    <row r="9">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D9" t="s" s="44">
         <v>67</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E9" t="s" s="45">
         <v>68</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F9" t="s" s="46">
         <v>69</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G9" t="s" s="47">
         <v>70</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H9" t="s">
         <v>71</v>
       </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="I9" t="s">
         <v>72</v>
       </c>
-      <c r="M8" t="s">
+      <c r="J9" t="s">
         <v>73</v>
       </c>
-      <c r="N8" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="K9" t="s">
         <v>74</v>
       </c>
-      <c r="P8" t="s">
+      <c r="L9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="M9" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s" s="44">
+      <c r="N9" t="s">
         <v>77</v>
       </c>
-      <c r="E10" t="s" s="45">
+      <c r="O9" t="s">
         <v>78</v>
       </c>
-      <c r="F10" t="s" s="46">
+      <c r="P9" t="s">
         <v>79</v>
       </c>
-      <c r="G10" t="s" s="47">
+      <c r="Q9" t="s">
         <v>80</v>
       </c>
-      <c r="H10" t="s">
+      <c r="R9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" t="s" s="48">
+        <v>62</v>
+      </c>
+      <c r="T9" t="s" s="49">
+        <v>63</v>
+      </c>
+      <c r="U9" t="s">
         <v>81</v>
       </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" t="s" s="48">
-        <v>62</v>
-      </c>
-      <c r="T10" t="s" s="49">
-        <v>63</v>
-      </c>
-      <c r="U10" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="V9" t="s">
         <v>64</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W9" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11">
-        <f>表单配置!$E$8</f>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" t="s">
-        <v>73</v>
-      </c>
-      <c r="V11" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
